--- a/biology/Botanique/Orobanche_caryophyllacea/Orobanche_caryophyllacea.xlsx
+++ b/biology/Botanique/Orobanche_caryophyllacea/Orobanche_caryophyllacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Orobanche giroflée ou Orobanche à odeur d’œillet est une plante holoparasite, non-chlorophyllienne de la famille des Orobanchaceaée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Orobanche giroflée ou Orobanche à odeur d’œillet est une plante holoparasite, non-chlorophyllienne de la famille des Orobanchaceaée.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce "Caryophyllacea" vient sûrement de caryophyllus nom donné à l'Oeillet commun. 
 </t>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">- Plante de 20-60 cm à poils glanduleux  
 - Tige, jaunâtre à rougeâtre, à peine renflée à la base 
 - Ecailles (feuilles réduites) longues de 15-25 mm   
 - Fleurs de 20-30 mm, inflorescence en épi lâche à odeur de girofle  
-- Stigmate d'un pourpre noirâtre[2].
+- Stigmate d'un pourpre noirâtre.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>particularité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- parasite des gaillets et autres rubiacée[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- parasite des gaillets et autres rubiacée
 </t>
         </is>
       </c>
